--- a/ExcelFolder/ExcelDriven.xlsx
+++ b/ExcelFolder/ExcelDriven.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dibya\OneDrive\Desktop\Desktop Items\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dibya\git\ExcelDriven\ExcelFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402377D5-84BC-4577-9FAA-58C6C7B6E714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3918511E-3B35-4ED8-86BB-C7417B61FC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EFD76CA3-A707-4500-A163-B84C2D20B351}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>TestCases</t>
   </si>
@@ -98,6 +98,21 @@
   </si>
   <si>
     <t>lkj</t>
+  </si>
+  <si>
+    <t>Data4</t>
+  </si>
+  <si>
+    <t>Diby</t>
+  </si>
+  <si>
+    <t>Ish</t>
+  </si>
+  <si>
+    <t>Abhi</t>
+  </si>
+  <si>
+    <t>Anki</t>
   </si>
 </sst>
 </file>
@@ -469,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF8E972-E7CD-4091-A6CD-499EFBE682CC}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -480,7 +495,7 @@
     <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -493,8 +508,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -507,8 +525,11 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -521,8 +542,11 @@
       <c r="D3" t="s">
         <v>13</v>
       </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -535,8 +559,11 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -548,6 +575,9 @@
       </c>
       <c r="D5" t="s">
         <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
